--- a/jim380/evidence.xlsx
+++ b/jim380/evidence.xlsx
@@ -106,6 +106,15 @@
     <t>ccnft001</t>
   </si>
   <si>
+    <t>F788E4CBCA272F47BA8C28F46BC957B3FB42BD1945EC91ECA19F4468C45854AA</t>
+  </si>
+  <si>
+    <t>Ccnft</t>
+  </si>
+  <si>
+    <t>ccnft002</t>
+  </si>
+  <si>
     <t>Contract Addr</t>
   </si>
   <si>
@@ -118,9 +127,6 @@
     <t>stars1dnrn62wq8pn337plntvuc6veapzlph6en5f487m8lgkcxfuw085ss63k7v</t>
   </si>
   <si>
-    <t>ccnft002</t>
-  </si>
-  <si>
     <t>elgafar-1</t>
   </si>
   <si>
@@ -137,12 +143,6 @@
   </si>
   <si>
     <t>44706232A621FE60ACA9821E52C5355B62B5A53C792F93DE6D1785D04B30FE81</t>
-  </si>
-  <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ccnft</t>
-  </si>
-  <si>
-    <t>gon-irishub-1</t>
   </si>
   <si>
     <t>B3EA8072D2184B149EC71E985AC82449E8DA5E305EB6D237C804E6232E0D80F0</t>
@@ -203,7 +203,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -303,7 +309,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -319,22 +325,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -368,12 +383,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -627,17 +636,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -665,10 +674,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -916,12 +925,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1208,7 +1217,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1236,10 +1245,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1656,9 +1665,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="18" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16" style="20" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1756,9 +1765,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="19" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="19" customWidth="1"/>
+    <col min="1" max="1" width="16" style="21" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1856,9 +1865,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="20" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16" style="22" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="22" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1956,9 +1965,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="21" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16" style="23" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2056,9 +2065,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="22" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="22" customWidth="1"/>
+    <col min="1" max="1" width="16" style="24" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2066,7 +2075,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="8"/>
@@ -2084,7 +2093,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B3" s="8"/>
@@ -2093,7 +2102,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
@@ -2160,9 +2169,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="24" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="24" customWidth="1"/>
+    <col min="1" max="1" width="16" style="25" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2170,7 +2179,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="8"/>
@@ -2188,7 +2197,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B3" s="8"/>
@@ -2197,7 +2206,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
@@ -2264,9 +2273,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="25" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16" style="26" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2274,7 +2283,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="8"/>
@@ -2292,7 +2301,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B3" s="8"/>
@@ -2301,7 +2310,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
@@ -2368,9 +2377,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="26" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16" style="27" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2378,7 +2387,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="8"/>
@@ -2396,7 +2405,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B3" s="8"/>
@@ -2405,7 +2414,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
@@ -2472,9 +2481,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="27" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16" style="28" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2482,7 +2491,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="8"/>
@@ -2500,7 +2509,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B3" s="8"/>
@@ -2509,7 +2518,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
@@ -2576,9 +2585,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="28" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16" style="29" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2586,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="8"/>
@@ -2604,7 +2613,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B3" s="8"/>
@@ -2613,7 +2622,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
@@ -2780,9 +2789,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="29" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16" style="30" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2790,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="8"/>
@@ -2808,7 +2817,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B3" s="8"/>
@@ -2817,7 +2826,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
@@ -2884,9 +2893,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="30" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="30" customWidth="1"/>
+    <col min="1" max="1" width="16" style="31" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -2894,7 +2903,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="8"/>
@@ -2912,7 +2921,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B3" s="8"/>
@@ -2921,7 +2930,7 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="23">
+      <c r="A4" t="s" s="13">
         <v>41</v>
       </c>
       <c r="B4" s="8"/>
@@ -2988,8 +2997,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="31" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3011,7 +3020,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>43</v>
       </c>
       <c r="B3" s="8"/>
@@ -3086,8 +3095,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="32" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3109,7 +3118,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>43</v>
       </c>
       <c r="B3" s="8"/>
@@ -3184,8 +3193,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="33" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3207,7 +3216,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>43</v>
       </c>
       <c r="B3" s="8"/>
@@ -3282,8 +3291,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="34" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3305,7 +3314,7 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="23">
+      <c r="A3" t="s" s="13">
         <v>43</v>
       </c>
       <c r="B3" s="8"/>
@@ -3413,9 +3422,15 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" t="s" s="12">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="13">
+        <v>25</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -3485,10 +3500,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16" style="12" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="12" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16" style="14" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3496,28 +3511,28 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s" s="3">
         <v>20</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="B2" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s" s="5">
-        <v>27</v>
-      </c>
       <c r="D2" t="s" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -3594,10 +3609,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="13" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="13" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16" style="15" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3605,28 +3620,28 @@
         <v>16</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s" s="3">
         <v>20</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="5">
         <v>22</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -3703,10 +3718,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17.8516" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16" style="14" customWidth="1"/>
-    <col min="4" max="5" width="12.6719" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="14" customWidth="1"/>
+    <col min="1" max="2" width="17.8516" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16" style="16" customWidth="1"/>
+    <col min="4" max="5" width="12.6719" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3720,22 +3735,22 @@
         <v>20</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -3812,12 +3827,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.8516" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="15" customWidth="1"/>
-    <col min="5" max="5" width="12.6719" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="15" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.3516" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.6719" style="17" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3831,7 +3846,7 @@
         <v>20</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="10"/>
     </row>
@@ -3840,13 +3855,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="5">
         <v>22</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -3923,9 +3938,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="16" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16" style="18" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -4023,9 +4038,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="17" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16" style="19" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">

--- a/jim380/evidence.xlsx
+++ b/jim380/evidence.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>TeamName</t>
   </si>
@@ -148,19 +148,157 @@
     <t>B3EA8072D2184B149EC71E985AC82449E8DA5E305EB6D237C804E6232E0D80F0</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/8C76A6EE5E8D9896C692CC7E58F8EE8299B79DE3CDC598EDC9A24672F83BEAD8</t>
+  </si>
+  <si>
+    <t>ccnft003</t>
+  </si>
+  <si>
+    <t>ibc/97871416AA4A9AA3FD2B251FAEE4365045CA799CBDB3BC846D7FEAF9EB1D2ED2</t>
+  </si>
+  <si>
+    <t>ccnft444</t>
+  </si>
+  <si>
+    <t>ibc/570D994375F7636B75B2AA9BF7BE70D191703808A1AC96303C152B94BBE0B4F0</t>
+  </si>
+  <si>
+    <t>ccnft555</t>
+  </si>
+  <si>
+    <t>ibc/E2B0AB8046A10C12578C19364CD637D611E1D7176023EAB271172BC465F70A8A</t>
+  </si>
+  <si>
+    <t>ccnft066</t>
+  </si>
+  <si>
+    <t>ibc/7A2D490FF481946888449C6946EDDEAF192EA6B18354DEF5361DF9D0073C683A</t>
+  </si>
+  <si>
+    <t>ccnft007</t>
+  </si>
+  <si>
+    <t>ibc/BF928DD8C9C27C2D2291F918CCDC5161BB0456A4A7A810630ACE18FB8CECDF7B</t>
+  </si>
+  <si>
+    <t>ccnft008</t>
+  </si>
+  <si>
+    <t>79B0DD105824834FDD769CE4A6B03DC3823F8635B253F47DAC23C3C59C433686</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>708CB8510EC2A900C78EADA353F8A2EE8DDD80F424434742545B59887DA4C8DE</t>
+  </si>
+  <si>
+    <t>A08DCE7E33B0692AFACE0BD3DD7B195F62CAEC0D9769399B46D85AAAB524926F</t>
+  </si>
+  <si>
+    <t>A924871241B9FDAFF123422AFBE3D8AC377D15A9DC30F19434FD0B45F00B973B</t>
+  </si>
+  <si>
+    <t>5099DE16460BC9836922B4EE0F21F2679B59F042D91CF16C6B4D9E34EE8EBBF1</t>
+  </si>
+  <si>
+    <t>BD5CBE5FC404490FE5F7E550DC0A78E878CAFD097A948953DA664D9E43241E76</t>
+  </si>
+  <si>
+    <t>5C721FD3B28E5B1759477F9F18BC7F304EF7140C705957C08D84F233ABE3C1A4</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>557B1F6722DCA8AACA437D60B41126CED9452370A8C086792E200494EEB8B4FE</t>
+  </si>
+  <si>
+    <t>7E7B504C3C8F2E8326D6C07E5169949D69C974D7A323FA379BAC47A1DB86C458</t>
+  </si>
+  <si>
+    <t>2A6C8C03A0247A4DD90BD33A2E08B636C832990B0DCAB4D0F8B5B0F0CA433C37</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>7BE4A42407EFDD5E656E7F9A31B2194BCEC3282789B966637BD942AA174E87AD</t>
+  </si>
+  <si>
+    <t>215C6F120ECCA6874A269293352D27AA0F6CA2F26CE1393280A933166918E984</t>
+  </si>
+  <si>
+    <t>5DA20E18711D2C8E9BCBDAAA43AFC514E9C50FC9832D07FAE84EDDDF5A5D6011</t>
+  </si>
+  <si>
+    <t>CA4810468C67241A12BFC0EB0E4E360B097BC11EEC8A850D130DC473EE49FAB4</t>
+  </si>
+  <si>
+    <t>CD08AE41BAE23AFA96473D61BD565207505964EC3C4B626FD66759E0520D33DA</t>
+  </si>
+  <si>
+    <t>7294C7E34A371DC2CA896E62F94B9AC06185D026E0A846581DD64E1682DF8C97</t>
+  </si>
+  <si>
+    <t>2BB06582320A58A73BA3C96E82FF4B709F04AF678C128EC8288B46BB3599452C</t>
+  </si>
+  <si>
+    <t>86E47A40651A58B504E604D52B5C1B12A2E253D439EBB0DF849C6FBE24828756</t>
+  </si>
+  <si>
+    <t>B90E2EA8BAAAE51C0648BCE78FDD283B1738D09A6B41F8F098FFD37FC40E1A5E</t>
+  </si>
+  <si>
+    <t>5D4519A3DD39040924D6BA32B7CF272567BD1FAA9D65C788C05A473D0E8D3070</t>
+  </si>
+  <si>
+    <t>0E87D18E9FF1AF63BAE31F9FC804D6457247EFC45BFEA980806CEE298C55D282</t>
+  </si>
+  <si>
+    <t>A56FFBD79F127D77CA4222596F305D220B65A9E7862E05C4311E0392C8211096</t>
+  </si>
+  <si>
+    <t>58055FC8FF666A41027FA0E93E1FD74E9634834E57A048B1CD839AADB78C4C40</t>
+  </si>
+  <si>
+    <t>12C7ABAAA30BBE5EAAD83359F6DA2E13E3D64F50F84B633AF64AF291B344D2A5</t>
+  </si>
+  <si>
+    <t>2E8AD22EAA5CC36CD82D3A9A0AA192F0DECD97CB10D1E0A29116CE1FCDBB6FD8</t>
+  </si>
+  <si>
+    <t>283AD84F9A71434CB38485A0AED8F7122F8D6F8F09C6E6371BF238531DCC04ED</t>
+  </si>
+  <si>
+    <t>E563F38EAEB48A00FB64CD214F081DCA1B0D582FE9D9B45EE64CEBB8EF6C54A6</t>
+  </si>
+  <si>
+    <t>7021380F813EBB0BF8E3CD5F1B23736417B63BD77D51EC6CD63358C87DD3DBE0</t>
+  </si>
+  <si>
+    <t>39AD3C691F533242FB20B985E8D1F9C10F7BE300AF04C194939F5923A00B6BC8</t>
+  </si>
+  <si>
+    <t>A1F787081FB1C3CAB13E7480DE7C8F5CF52AC3EAA616B01255E5B737D08772B3</t>
+  </si>
+  <si>
+    <t>FA1AFD5D0712EDFAC4F4B6EC0C5DF11F7D51A91226796A4CD228071F43E7521F</t>
+  </si>
+  <si>
+    <t>E69D4AA9F51A9EFC960D333D366ED65EFC3672B51477DAD460DC255A3FF36279</t>
+  </si>
+  <si>
+    <t>9F8C8DAB75BFAEC7C4D154CB6A61D6FE99E497D25FFD02FBDEACEE516C9CA93A</t>
+  </si>
+  <si>
+    <t>405469F2B1FB4BE9EF62C64FDA401C0986263960E32ECC335E7634CBC0F1EFDD</t>
+  </si>
+  <si>
+    <t>99215AA6E928A38A89A2563EE72D5657C35E1DC5C4A757D06B3DF7E553944272</t>
+  </si>
+  <si>
+    <t>02E9CC3D168186B66764B33EF970A5AAC679A58F5E6B54AE90F2594D858C4D64</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -176,7 +314,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -196,6 +334,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times Roman"/>
     </font>
     <font>
       <sz val="12"/>
@@ -223,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -303,13 +446,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -385,8 +563,23 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -438,6 +631,7 @@
       <rgbColor rgb="ffd9d9d9"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffc6c6c6"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1683,10 +1877,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1783,10 +1977,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1883,10 +2077,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1983,10 +2177,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2074,7 +2268,7 @@
       <c r="A1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="25">
         <v>27</v>
       </c>
       <c r="C1" s="10"/>
@@ -2083,36 +2277,44 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>50</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" t="s" s="27">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>30</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" t="s" s="27">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>34</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="27">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>30</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2169,16 +2371,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="25" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16" style="29" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="25">
         <v>27</v>
       </c>
       <c r="C1" s="10"/>
@@ -2186,37 +2388,45 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>40</v>
+      <c r="A2" t="s" s="30">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>50</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" t="s" s="27">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>34</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" t="s" s="27">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>57</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="27">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>34</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2273,16 +2483,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="26" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16" style="31" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="25">
         <v>27</v>
       </c>
       <c r="C1" s="10"/>
@@ -2290,37 +2500,45 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>40</v>
+      <c r="A2" t="s" s="30">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>50</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" t="s" s="27">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>61</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" t="s" s="27">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>34</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="27">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>61</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2377,16 +2595,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="27" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16" style="32" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="25">
         <v>27</v>
       </c>
       <c r="C1" s="10"/>
@@ -2395,36 +2613,44 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>50</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" t="s" s="27">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>61</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" t="s" s="27">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>30</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="27">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>61</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2481,16 +2707,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="28" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="28" customWidth="1"/>
+    <col min="1" max="1" width="16" style="33" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="33" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="25">
         <v>27</v>
       </c>
       <c r="C1" s="10"/>
@@ -2498,37 +2724,45 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>40</v>
+      <c r="A2" t="s" s="30">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>50</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" t="s" s="27">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>30</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" t="s" s="27">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>61</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="27">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>30</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2585,16 +2819,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="29" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16" style="34" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="25">
         <v>27</v>
       </c>
       <c r="C1" s="10"/>
@@ -2602,37 +2836,45 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>40</v>
+      <c r="A2" t="s" s="30">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>50</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" t="s" s="27">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>57</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" t="s" s="27">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>34</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="27">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>57</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2789,16 +3031,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="30" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="30" customWidth="1"/>
+    <col min="1" max="1" width="16" style="35" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="25">
         <v>27</v>
       </c>
       <c r="C1" s="10"/>
@@ -2806,51 +3048,67 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>40</v>
+      <c r="A2" t="s" s="30">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>50</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" t="s" s="27">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>30</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" t="s" s="27">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>61</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="27">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s" s="28">
+        <v>34</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" t="s" s="27">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s" s="28">
+        <v>61</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" t="s" s="27">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>30</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2893,16 +3151,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16" style="31" customWidth="1"/>
-    <col min="2" max="5" width="12.6719" style="31" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="31" customWidth="1"/>
+    <col min="1" max="1" width="16" style="36" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="12.6719" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="25">
         <v>27</v>
       </c>
       <c r="C1" s="10"/>
@@ -2910,51 +3168,67 @@
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s" s="5">
-        <v>40</v>
+      <c r="A2" t="s" s="30">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s" s="26">
+        <v>50</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B3" s="8"/>
+      <c r="A3" t="s" s="27">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>34</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" t="s" s="13">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8"/>
+      <c r="A4" t="s" s="27">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s" s="28">
+        <v>30</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" t="s" s="27">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s" s="28">
+        <v>57</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" t="s" s="27">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s" s="28">
+        <v>30</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" t="s" s="27">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>34</v>
+      </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2997,8 +3271,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="32" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="32" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3012,7 +3286,7 @@
     </row>
     <row r="2" ht="16.4" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3021,7 +3295,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="13">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3095,8 +3369,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="33" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="33" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="38" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3110,7 +3384,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3119,7 +3393,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="13">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3193,8 +3467,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="34" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3208,7 +3482,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3217,7 +3491,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="13">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3291,8 +3565,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.1" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="35" customWidth="1"/>
+    <col min="1" max="5" width="11.5" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -3306,7 +3580,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3315,7 +3589,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" t="s" s="13">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4056,10 +4330,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
